--- a/Team-Data/2020-21/1-20-2020-21.xlsx
+++ b/Team-Data/2020-21/1-20-2020-21.xlsx
@@ -1960,10 +1960,10 @@
         <v>12.2</v>
       </c>
       <c r="M2" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O2" t="n">
         <v>21.2</v>
@@ -2456,10 +2456,10 @@
         <v>48.4</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.602</v>
+        <v>0.603</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="FS2" t="n">
         <v>0.483</v>
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="JC2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="JD2" t="n">
         <v>5.6</v>
@@ -2812,7 +2812,7 @@
         <v>27</v>
       </c>
       <c r="KC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="KD2" t="n">
         <v>19</v>
@@ -3049,13 +3049,13 @@
         <v>108.4</v>
       </c>
       <c r="BN3" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="BP3" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="BQ3" t="n">
         <v>0.2</v>
@@ -3073,7 +3073,7 @@
         <v>16.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="BW3" t="n">
         <v>0.732</v>
@@ -3094,13 +3094,13 @@
         <v>101.9</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.04</v>
+        <v>100.12</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.37</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="CE3" t="n">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="CF3" t="n">
         <v>0.499</v>
@@ -3121,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="CL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CM3" t="n">
         <v>17</v>
@@ -3145,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="CT3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU3" t="n">
         <v>23</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="DM3" t="n">
         <v>0.529</v>
@@ -3212,7 +3212,7 @@
         <v>0.285</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="DP3" t="n">
         <v>0.268</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.8</v>
@@ -3648,16 +3648,16 @@
         <v>9.5</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="IZ3" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="JA3" t="n">
         <v>22.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="JC3" t="n">
         <v>8.199999999999999</v>
@@ -3726,10 +3726,10 @@
         <v>11</v>
       </c>
       <c r="JY3" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ3" t="n">
         <v>6</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>5</v>
       </c>
       <c r="KA3" t="n">
         <v>2</v>
@@ -3738,7 +3738,7 @@
         <v>18</v>
       </c>
       <c r="KC3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="KD3" t="n">
         <v>14</v>
@@ -5899,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="CL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM6" t="n">
         <v>28</v>
@@ -6507,7 +6507,7 @@
         <v>8</v>
       </c>
       <c r="JZ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="KA6" t="n">
         <v>21</v>
@@ -8713,7 +8713,7 @@
         <v>8</v>
       </c>
       <c r="CX9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CY9" t="n">
         <v>7</v>
@@ -9389,7 +9389,7 @@
         <v>31.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.4</v>
@@ -9467,7 +9467,7 @@
         <v>30</v>
       </c>
       <c r="AT10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
@@ -9528,19 +9528,19 @@
         <v>692</v>
       </c>
       <c r="BM10" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="BN10" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="BO10" t="n">
         <v>111.2</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="BR10" t="n">
         <v>-4.1</v>
@@ -9549,7 +9549,7 @@
         <v>0.619</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>17.3</v>
@@ -9558,10 +9558,10 @@
         <v>0.279</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="BY10" t="n">
         <v>0.137</v>
@@ -9573,16 +9573,16 @@
         <v>0.537</v>
       </c>
       <c r="CB10" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CC10" t="n">
-        <v>98.84</v>
+        <v>98.91</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.37</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="CE10" t="n">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="CF10" t="n">
         <v>0.46</v>
@@ -9615,7 +9615,7 @@
         <v>10</v>
       </c>
       <c r="CP10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CQ10" t="n">
         <v>19</v>
@@ -9639,7 +9639,7 @@
         <v>24</v>
       </c>
       <c r="CX10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CY10" t="n">
         <v>28</v>
@@ -9694,10 +9694,10 @@
         <v>0.271</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
       <c r="DQ10" t="n">
         <v>9</v>
@@ -10000,13 +10000,13 @@
         <v>49.4</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="HJ10" t="n">
         <v>31.9</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10112,10 +10112,10 @@
         <v>13.9</v>
       </c>
       <c r="IS10" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="IT10" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="IU10" t="n">
         <v>16.7</v>
@@ -10541,7 +10541,7 @@
         <v>4</v>
       </c>
       <c r="CP11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ11" t="n">
         <v>10</v>
@@ -13319,7 +13319,7 @@
         <v>14</v>
       </c>
       <c r="CP14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ14" t="n">
         <v>8</v>
@@ -13331,7 +13331,7 @@
         <v>7</v>
       </c>
       <c r="CT14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CU14" t="n">
         <v>15</v>
@@ -16693,7 +16693,7 @@
         <v>3</v>
       </c>
       <c r="JZ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="KA17" t="n">
         <v>19</v>
@@ -18551,7 +18551,7 @@
         <v>29</v>
       </c>
       <c r="KB19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="KC19" t="n">
         <v>14</v>
@@ -23357,7 +23357,7 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -24292,7 +24292,7 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
@@ -24867,7 +24867,7 @@
         <v>17</v>
       </c>
       <c r="HZ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="IA26" t="n">
         <v>14</v>

--- a/Team-Data/2020-21/1-20-2020-21.xlsx
+++ b/Team-Data/2020-21/1-20-2020-21.xlsx
@@ -811,13 +811,13 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>16</v>
@@ -826,10 +826,10 @@
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>28</v>
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
         <v>1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>7</v>
@@ -1032,10 +1032,10 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="n">
         <v>24</v>
@@ -1044,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1065,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="BB3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
         <v>12</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
         <v>18.5</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1190,7 +1190,7 @@
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1229,10 +1229,10 @@
         <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
         <v>8</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="BC4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -1360,10 +1360,10 @@
         <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1390,22 +1390,22 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>22</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1423,13 +1423,13 @@
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>21</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>15</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -1542,10 +1542,10 @@
         <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
@@ -1584,10 +1584,10 @@
         <v>25</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>14</v>
@@ -1608,7 +1608,7 @@
         <v>27</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -1721,13 +1721,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>16</v>
@@ -1763,13 +1763,13 @@
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>20</v>
@@ -1781,16 +1781,16 @@
         <v>2</v>
       </c>
       <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
         <v>18</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
         <v>30</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -1903,19 +1903,19 @@
         <v>0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>28</v>
@@ -1924,10 +1924,10 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1936,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>7</v>
@@ -1966,16 +1966,16 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
         <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC8" t="n">
         <v>14</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -2007,160 +2007,160 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I9" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="J9" t="n">
-        <v>88.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.483</v>
+        <v>0.479</v>
       </c>
       <c r="L9" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
-        <v>34.3</v>
+        <v>34.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P9" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.739</v>
+        <v>0.748</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="T9" t="n">
-        <v>43.2</v>
+        <v>44.2</v>
       </c>
       <c r="U9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V9" t="n">
         <v>14.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.4</v>
+        <v>115.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY9" t="n">
         <v>9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>10</v>
       </c>
       <c r="AZ9" t="n">
         <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2267,7 +2267,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>28</v>
@@ -2300,16 +2300,16 @@
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>30</v>
@@ -2321,10 +2321,10 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2485,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ11" t="n">
         <v>11</v>
@@ -2497,28 +2497,28 @@
         <v>14</v>
       </c>
       <c r="AT11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
         <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB11" t="n">
         <v>13</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -2631,13 +2631,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>27</v>
@@ -2646,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2682,10 +2682,10 @@
         <v>23</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>3.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>3</v>
@@ -2852,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -3213,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>15</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>41.6</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.452</v>
@@ -3323,13 +3323,13 @@
         <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
         <v>34.8</v>
       </c>
       <c r="T16" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U16" t="n">
         <v>27.2</v>
@@ -3359,7 +3359,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3371,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3383,13 +3383,13 @@
         <v>17</v>
       </c>
       <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
         <v>27</v>
       </c>
-      <c r="AM16" t="n">
-        <v>28</v>
-      </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3401,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3410,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV16" t="n">
         <v>12</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3541,13 +3541,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
@@ -3610,7 +3610,7 @@
         <v>23</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17" t="n">
         <v>18</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>15.9</v>
       </c>
       <c r="M18" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.403</v>
@@ -3705,7 +3705,7 @@
         <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF18" t="n">
         <v>5</v>
@@ -3753,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3765,13 +3765,13 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3932,10 +3932,10 @@
         <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3974,10 +3974,10 @@
         <v>19</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4009,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="J20" t="n">
-        <v>85.8</v>
+        <v>86.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.334</v>
+        <v>0.327</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="T20" t="n">
-        <v>48.3</v>
+        <v>47.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="V20" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>107.8</v>
+        <v>107.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>18</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV20" t="n">
         <v>24</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>26</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -4305,13 +4305,13 @@
         <v>22</v>
       </c>
       <c r="AP21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>19</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>18</v>
-      </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>11</v>
@@ -4338,13 +4338,13 @@
         <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4373,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="M22" t="n">
-        <v>38.8</v>
+        <v>39.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.33</v>
@@ -4409,85 +4409,85 @@
         <v>15.2</v>
       </c>
       <c r="P22" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.719</v>
       </c>
       <c r="R22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="S22" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45</v>
+        <v>44.7</v>
       </c>
       <c r="U22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="W22" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-7</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4496,37 +4496,37 @@
         <v>29</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
       </c>
       <c r="AV22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX22" t="n">
         <v>16</v>
       </c>
-      <c r="AW22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>15</v>
-      </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>27</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4636,10 +4636,10 @@
         <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
@@ -4657,7 +4657,7 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>25</v>
@@ -4696,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>2</v>
@@ -4708,7 +4708,7 @@
         <v>28</v>
       </c>
       <c r="BC23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
@@ -4848,7 +4848,7 @@
         <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4860,7 +4860,7 @@
         <v>17</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
@@ -4872,7 +4872,7 @@
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -5015,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -5033,7 +5033,7 @@
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
         <v>4</v>
@@ -5057,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -5066,13 +5066,13 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -5209,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5227,7 +5227,7 @@
         <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>11</v>
@@ -5406,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>27</v>
@@ -5415,7 +5415,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -5430,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
         <v>9</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>25</v>
@@ -5588,7 +5588,7 @@
         <v>16</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>9</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -5725,16 +5725,16 @@
         <v>1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5755,13 +5755,13 @@
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>7</v>
@@ -5773,7 +5773,7 @@
         <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5782,7 +5782,7 @@
         <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
         <v>4</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -5829,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="J30" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="M30" t="n">
-        <v>40.7</v>
+        <v>41.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.397</v>
+        <v>0.401</v>
       </c>
       <c r="O30" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="P30" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R30" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="T30" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="V30" t="n">
         <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>110.5</v>
+        <v>111.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF30" t="n">
         <v>1</v>
       </c>
       <c r="AG30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -5925,10 +5925,10 @@
         <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>1</v>
@@ -5943,13 +5943,13 @@
         <v>30</v>
       </c>
       <c r="AP30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ30" t="n">
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV30" t="n">
         <v>22</v>
@@ -5967,22 +5967,22 @@
         <v>30</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6140,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31" t="n">
         <v>5</v>
@@ -6158,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB31" t="n">
         <v>1</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2020-21</t>
+          <t>2021-01-20</t>
         </is>
       </c>
     </row>
